--- a/BackTest/2019-10-28 BackTest XLM.xlsx
+++ b/BackTest/2019-10-28 BackTest XLM.xlsx
@@ -2271,17 +2271,13 @@
         <v>72.66666666666653</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K54" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
@@ -2310,22 +2306,14 @@
         <v>72.6333333333332</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K55" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2353,22 +2341,14 @@
         <v>72.63333333333318</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K56" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2396,22 +2376,14 @@
         <v>72.63333333333318</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K57" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2447,12 +2419,10 @@
       <c r="J58" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="K58" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2488,11 +2458,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K59" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>72.5</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2531,11 +2499,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="K60" t="n">
         <v>72.59999999999999</v>
       </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2576,9 +2542,7 @@
       <c r="J61" t="n">
         <v>73</v>
       </c>
-      <c r="K61" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2617,11 +2581,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K62" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>72.8</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,17 +2616,13 @@
         <v>72.69999999999982</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K63" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2697,17 +2655,13 @@
         <v>72.59999999999981</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="K64" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2740,17 +2694,13 @@
         <v>72.63333333333316</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K65" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2783,17 +2733,13 @@
         <v>72.63333333333314</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K66" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2826,17 +2772,13 @@
         <v>72.73333333333314</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K67" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2869,17 +2811,13 @@
         <v>72.73333333333314</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2912,17 +2850,13 @@
         <v>72.73333333333314</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K69" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2955,17 +2889,13 @@
         <v>72.66666666666646</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K70" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2998,17 +2928,13 @@
         <v>72.56666666666645</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3041,17 +2967,13 @@
         <v>72.53333333333312</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,17 +3006,13 @@
         <v>72.53333333333312</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3127,17 +3045,13 @@
         <v>72.53333333333312</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="K74" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3170,17 +3084,13 @@
         <v>72.63333333333311</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K75" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3213,17 +3123,13 @@
         <v>72.69999999999979</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K76" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3256,17 +3162,13 @@
         <v>72.79999999999978</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K77" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3299,17 +3201,13 @@
         <v>72.66666666666646</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K78" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3342,17 +3240,13 @@
         <v>72.66666666666646</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K79" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3385,17 +3279,13 @@
         <v>72.63333333333311</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K80" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3428,17 +3318,13 @@
         <v>72.66666666666644</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="K81" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3471,17 +3357,13 @@
         <v>72.56666666666644</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="K82" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3514,17 +3396,13 @@
         <v>72.59999999999978</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K83" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3557,17 +3435,13 @@
         <v>72.69999999999978</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K84" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3600,17 +3474,13 @@
         <v>72.73333333333312</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="K85" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,17 +3513,13 @@
         <v>72.66666666666646</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K86" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,17 +3552,13 @@
         <v>72.63333333333311</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K87" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3729,17 +3591,13 @@
         <v>72.66666666666644</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K88" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3772,17 +3630,13 @@
         <v>72.69999999999979</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K89" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,17 +3669,13 @@
         <v>72.6999999999998</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K90" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,17 +3708,13 @@
         <v>72.6999999999998</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K91" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,17 +3747,13 @@
         <v>72.6999999999998</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K92" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,17 +3786,13 @@
         <v>72.73333333333314</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K93" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,17 +3825,13 @@
         <v>72.6999999999998</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K94" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4030,17 +3864,13 @@
         <v>72.73333333333314</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K95" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4073,17 +3903,13 @@
         <v>72.6999999999998</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="K96" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,17 +3942,13 @@
         <v>72.76666666666647</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K97" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4159,17 +3981,13 @@
         <v>72.7999999999998</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="K98" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,17 +4020,13 @@
         <v>72.86666666666646</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="K99" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4245,17 +4059,13 @@
         <v>72.96666666666646</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="K100" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4288,17 +4098,13 @@
         <v>73.0333333333331</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="K101" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4331,17 +4137,13 @@
         <v>73.09999999999977</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="K102" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4374,17 +4176,13 @@
         <v>73.09999999999977</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="K103" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4417,17 +4215,13 @@
         <v>73.06666666666642</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="K104" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,17 +4254,13 @@
         <v>73.03333333333309</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>73</v>
-      </c>
-      <c r="K105" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4503,17 +4293,13 @@
         <v>73.09999999999975</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="K106" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4546,17 +4332,13 @@
         <v>73.19999999999975</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="K107" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4589,17 +4371,13 @@
         <v>73.33333333333307</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K108" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,17 +4410,13 @@
         <v>73.29999999999973</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="K109" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4675,17 +4449,13 @@
         <v>73.29999999999973</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="K110" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4718,17 +4488,13 @@
         <v>73.23333333333305</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="K111" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,17 +4527,13 @@
         <v>73.16666666666639</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="K112" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4804,17 +4566,13 @@
         <v>73.0999999999997</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="K113" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4847,17 +4605,13 @@
         <v>73.0999999999997</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="K114" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4890,17 +4644,13 @@
         <v>73.16666666666636</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="K115" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4933,17 +4683,13 @@
         <v>73.19999999999969</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="K116" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4976,17 +4722,13 @@
         <v>73.1999999999997</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="K117" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5019,17 +4761,13 @@
         <v>73.1999999999997</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="K118" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5062,17 +4800,13 @@
         <v>73.23333333333305</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="K119" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5105,17 +4839,13 @@
         <v>73.26666666666638</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="K120" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5148,17 +4878,13 @@
         <v>73.29999999999973</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="K121" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,17 +4917,13 @@
         <v>73.33333333333304</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="K122" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5240,9 +4962,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,9 +5001,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5322,9 +5040,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5363,9 +5079,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5404,9 +5118,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5445,9 +5157,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,9 +5196,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5527,9 +5235,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5568,9 +5274,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5609,9 +5313,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5650,9 +5352,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5691,9 +5391,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5732,9 +5430,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5773,9 +5469,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,9 +5508,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5855,9 +5547,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5896,9 +5586,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5937,9 +5625,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5978,9 +5664,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6019,9 +5703,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6060,9 +5742,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6101,9 +5781,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6142,9 +5820,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6183,9 +5859,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6224,9 +5898,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6265,9 +5937,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6306,9 +5976,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6347,9 +6015,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6388,9 +6054,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6429,9 +6093,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6470,9 +6132,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6511,9 +6171,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6552,9 +6210,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6593,9 +6249,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6634,9 +6288,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6675,9 +6327,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6716,9 +6366,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6757,9 +6405,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6798,9 +6444,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6839,9 +6483,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6880,9 +6522,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6921,9 +6561,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6962,9 +6600,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7003,9 +6639,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7044,9 +6678,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7085,9 +6717,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7126,9 +6756,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,9 +6795,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7208,9 +6834,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7249,9 +6873,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7290,9 +6912,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7331,9 +6951,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7372,9 +6990,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7413,9 +7029,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7454,9 +7068,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7495,9 +7107,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7536,9 +7146,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7577,9 +7185,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7618,9 +7224,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7659,9 +7263,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7700,9 +7302,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7741,9 +7341,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7782,9 +7380,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7820,19 +7416,17 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>1.029435261707989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -7865,7 +7459,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7900,7 +7498,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7935,7 +7537,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7970,7 +7576,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8005,7 +7615,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8040,7 +7654,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8075,7 +7693,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8110,7 +7732,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8145,7 +7771,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8180,7 +7810,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8215,7 +7849,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8250,7 +7888,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8285,7 +7927,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8320,7 +7966,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8355,7 +8005,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8390,7 +8044,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8425,7 +8083,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8460,7 +8122,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8495,7 +8161,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8530,7 +8200,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8565,7 +8239,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8600,7 +8278,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8635,7 +8317,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8670,7 +8356,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +8395,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8740,7 +8434,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8775,7 +8473,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8810,7 +8512,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8845,7 +8551,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8880,7 +8590,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8915,7 +8629,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8950,7 +8668,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8985,7 +8707,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9020,7 +8746,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9055,7 +8785,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9090,7 +8824,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9125,7 +8863,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9160,7 +8902,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9195,7 +8941,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9230,7 +8980,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9265,7 +9019,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9300,7 +9058,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9335,7 +9097,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9370,7 +9136,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9405,7 +9175,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9440,7 +9214,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9475,7 +9253,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9510,7 +9292,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9545,7 +9331,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9580,7 +9370,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9615,7 +9409,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9650,7 +9448,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9685,7 +9487,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9720,7 +9526,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9755,7 +9565,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9790,7 +9604,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9825,7 +9643,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +9682,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9895,7 +9721,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9930,7 +9760,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9965,7 +9799,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10000,7 +9838,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10035,7 +9877,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10070,7 +9916,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10105,7 +9955,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10140,7 +9994,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10175,7 +10033,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10210,7 +10072,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10245,7 +10111,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10280,7 +10150,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10315,7 +10189,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10350,7 +10228,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10385,7 +10267,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10420,7 +10306,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10455,7 +10345,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10490,7 +10384,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10525,7 +10423,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10560,7 +10462,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10595,7 +10501,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10630,7 +10540,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10665,7 +10579,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10700,7 +10618,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10735,7 +10657,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10770,7 +10696,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10805,7 +10735,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10840,7 +10774,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10875,7 +10813,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10910,7 +10852,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10945,7 +10891,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10980,7 +10930,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +10969,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11050,7 +11008,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11085,7 +11047,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11120,7 +11086,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11155,7 +11125,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11190,7 +11164,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11225,7 +11203,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11260,7 +11242,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11295,7 +11281,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11330,7 +11320,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11365,7 +11359,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11400,7 +11398,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11435,7 +11437,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11470,7 +11476,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11505,7 +11515,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11540,7 +11554,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11575,7 +11593,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11610,7 +11632,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11645,7 +11671,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11680,7 +11710,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11715,7 +11749,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11750,7 +11788,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11785,7 +11827,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11820,7 +11866,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11855,7 +11905,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11890,7 +11944,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11925,7 +11983,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11960,7 +12022,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11995,7 +12061,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12030,7 +12100,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12065,7 +12139,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12100,7 +12178,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12135,7 +12217,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12256,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12205,7 +12295,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12240,7 +12334,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12275,7 +12373,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12310,7 +12412,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12345,7 +12451,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12380,7 +12490,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12415,7 +12529,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12450,7 +12568,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12485,7 +12607,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12520,7 +12646,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12555,7 +12685,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12590,7 +12724,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12625,7 +12763,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12660,7 +12802,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12695,7 +12841,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12730,7 +12880,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12765,7 +12919,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12800,7 +12958,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12835,7 +12997,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12870,7 +13036,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12905,7 +13075,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12940,7 +13114,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12975,7 +13153,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13010,7 +13192,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13045,7 +13231,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13080,7 +13270,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13115,7 +13309,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13150,7 +13348,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13185,7 +13387,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13220,7 +13426,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13255,7 +13465,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13290,7 +13504,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +13543,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13360,7 +13582,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13395,7 +13621,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13430,7 +13660,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13465,7 +13699,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13500,7 +13738,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13535,7 +13777,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13570,7 +13816,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13605,7 +13855,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13640,7 +13894,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13675,7 +13933,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13710,7 +13972,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13745,7 +14011,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13780,7 +14050,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13815,7 +14089,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13850,7 +14128,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13885,7 +14167,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13920,7 +14206,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13955,7 +14245,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13990,7 +14284,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14025,7 +14323,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14060,7 +14362,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14095,7 +14401,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14130,7 +14440,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14165,7 +14479,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14200,7 +14518,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14235,7 +14557,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14270,7 +14596,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14305,7 +14635,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14340,7 +14674,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14375,7 +14713,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14410,7 +14752,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14445,7 +14791,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14830,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14515,7 +14869,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14550,7 +14908,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14585,7 +14947,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14620,7 +14986,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14655,7 +15025,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14690,7 +15064,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14725,7 +15103,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14760,7 +15142,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14795,7 +15181,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14830,7 +15220,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14865,7 +15259,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14900,7 +15298,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14935,7 +15337,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14970,7 +15376,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15005,7 +15415,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15040,7 +15454,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15075,7 +15493,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15110,7 +15532,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15145,7 +15571,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15180,7 +15610,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15215,7 +15649,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15250,7 +15688,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15285,7 +15727,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15320,7 +15766,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15355,7 +15805,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15390,7 +15844,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15425,7 +15883,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15460,7 +15922,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15495,7 +15961,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15530,7 +16000,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15565,7 +16039,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15600,7 +16078,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +16117,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15670,7 +16156,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15705,7 +16195,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15740,7 +16234,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15775,7 +16273,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15810,7 +16312,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15845,7 +16351,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15880,7 +16390,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15915,7 +16429,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15950,7 +16468,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15985,7 +16507,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16020,7 +16546,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16055,7 +16585,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16090,7 +16624,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16125,7 +16663,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16160,7 +16702,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16195,7 +16741,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16230,7 +16780,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16265,7 +16819,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16300,7 +16858,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16335,7 +16897,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16370,7 +16936,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16405,7 +16975,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16440,7 +17014,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16475,7 +17053,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16510,7 +17092,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16545,7 +17131,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16580,7 +17170,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16615,7 +17209,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16650,7 +17248,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16685,7 +17287,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16720,7 +17326,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16755,7 +17365,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +17404,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16825,7 +17443,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16860,7 +17482,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16895,7 +17521,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16930,7 +17560,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16965,7 +17599,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17000,7 +17638,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17035,7 +17677,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17070,7 +17716,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17105,7 +17755,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17140,7 +17794,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17175,7 +17833,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17210,7 +17872,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17245,7 +17911,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17280,7 +17950,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17315,7 +17989,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17350,7 +18028,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17385,7 +18067,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17420,7 +18106,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17455,7 +18145,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17490,7 +18184,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17525,7 +18223,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17560,7 +18262,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17595,7 +18301,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17630,7 +18340,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17665,7 +18379,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17700,7 +18418,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17735,7 +18457,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17770,7 +18496,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17805,7 +18535,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17840,7 +18574,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17871,14 +18609,16 @@
         <v>0</v>
       </c>
       <c r="I473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
-      <c r="M473" t="n">
-        <v>1</v>
-      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -18046,7 +18786,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
@@ -18081,7 +18821,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
@@ -18116,7 +18856,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
@@ -18151,7 +18891,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
@@ -18186,7 +18926,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
@@ -18256,7 +18996,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
@@ -18291,7 +19031,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
@@ -19096,7 +19836,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest XLM.xlsx
+++ b/BackTest/2019-10-28 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4213,10 +4213,14 @@
         <v>-5680568.272334431</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J116" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4246,12 +4250,14 @@
         <v>-5697500.587034431</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4285,12 +4291,14 @@
         <v>-5684034.337034431</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>72.5</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4324,12 +4332,14 @@
         <v>-5563986.124834431</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4363,12 +4373,14 @@
         <v>-5576103.563134431</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>73</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4402,12 +4414,14 @@
         <v>-5576443.413334431</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>72.8</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4441,12 +4455,14 @@
         <v>-5584473.246834431</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>72.7</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,12 +4496,14 @@
         <v>-5602714.577834431</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4519,12 +4537,14 @@
         <v>-5590702.611734431</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>72.5</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4558,12 +4578,14 @@
         <v>-5618653.018034431</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>72.8</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4597,12 +4619,14 @@
         <v>-5606153.019034431</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,12 +4660,14 @@
         <v>-5606153.019034431</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>72.8</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4675,12 +4701,14 @@
         <v>-5614463.867834431</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>72.8</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4714,12 +4742,14 @@
         <v>-5614463.867834431</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4753,12 +4783,14 @@
         <v>-5620638.527534431</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4792,12 +4824,14 @@
         <v>-5620638.527534431</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>72.5</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4831,12 +4865,14 @@
         <v>-5620002.960034431</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>72.5</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,12 +4906,14 @@
         <v>-5632501.959034431</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4909,12 +4947,14 @@
         <v>-5592125.827934431</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>72.5</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4948,12 +4988,14 @@
         <v>-5592125.827934431</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>72.8</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4987,12 +5029,14 @@
         <v>-5592125.827934431</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>72.8</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5026,12 +5070,14 @@
         <v>-5614949.401934431</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>72.8</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5065,12 +5111,14 @@
         <v>-5591032.674934431</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5104,12 +5152,14 @@
         <v>-5591112.674934431</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>72.8</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5143,12 +5193,14 @@
         <v>-5610207.681734431</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>72.7</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5182,12 +5234,14 @@
         <v>-5610207.681734431</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>72.5</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5221,12 +5275,14 @@
         <v>-5578459.75983443</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>72.5</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5260,12 +5316,14 @@
         <v>-5578459.75983443</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>72.8</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5299,12 +5357,14 @@
         <v>-5582705.27563443</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>72.8</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5338,12 +5398,14 @@
         <v>-5582705.27563443</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5377,12 +5439,14 @@
         <v>-5576028.27563443</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5416,12 +5480,14 @@
         <v>-5576028.27563443</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>72.7</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5455,12 +5521,14 @@
         <v>-5576028.27563443</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>72.7</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5494,12 +5562,14 @@
         <v>-5576028.27563443</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>72.7</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5533,12 +5603,14 @@
         <v>-5576028.27563443</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>72.7</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5572,12 +5644,14 @@
         <v>-5576028.27563443</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>72.7</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5611,12 +5685,14 @@
         <v>-5574248.344315751</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>72.7</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5650,12 +5726,14 @@
         <v>-5581069.105015751</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>72.8</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5689,12 +5767,14 @@
         <v>-5581027.896315751</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5728,12 +5808,14 @@
         <v>-5581631.57681575</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>72.8</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5767,12 +5849,14 @@
         <v>-5577555.48991575</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>72.7</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5806,12 +5890,14 @@
         <v>-5550055.48991575</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>72.8</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5845,12 +5931,14 @@
         <v>-5550055.48991575</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>72.90000000000001</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5884,12 +5972,14 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>72.90000000000001</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5923,12 +6013,14 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5962,12 +6054,14 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6001,12 +6095,14 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6040,12 +6136,14 @@
         <v>-5582120.91741575</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6079,12 +6177,14 @@
         <v>-5582120.91741575</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>73</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6118,12 +6218,14 @@
         <v>-5551414.33421575</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>73</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6157,12 +6259,14 @@
         <v>-5551414.33421575</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>73.3</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6196,12 +6300,14 @@
         <v>-5551404.33421575</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>73.3</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6235,12 +6341,14 @@
         <v>-5555221.83121575</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6274,10 +6382,14 @@
         <v>-5525133.99361575</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6311,10 +6423,14 @@
         <v>-5531086.41981575</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="J170" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6348,10 +6464,14 @@
         <v>-5642370.37461575</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6385,10 +6505,14 @@
         <v>-5636756.37461575</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>73</v>
+      </c>
+      <c r="J172" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6422,10 +6546,14 @@
         <v>-5633993.254915751</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="J173" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6459,10 +6587,14 @@
         <v>-5633993.254915751</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,10 +6628,14 @@
         <v>-5633993.254915751</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6533,10 +6669,14 @@
         <v>-5633993.254915751</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6570,10 +6710,14 @@
         <v>-5633993.254915751</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6607,10 +6751,14 @@
         <v>-5626049.322915751</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6644,10 +6792,14 @@
         <v>-5626049.322915751</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="J179" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6684,7 +6836,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6721,7 +6875,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6758,7 +6914,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6795,7 +6953,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6832,7 +6992,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6869,7 +7031,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6906,7 +7070,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6943,7 +7109,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6980,7 +7148,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7017,7 +7187,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7054,7 +7226,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7091,7 +7265,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7128,7 +7304,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7165,7 +7343,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7202,7 +7382,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7239,7 +7421,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7276,7 +7460,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7313,7 +7499,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7350,7 +7538,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7387,7 +7577,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7424,7 +7616,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7461,7 +7655,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7498,7 +7694,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7535,7 +7733,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7572,7 +7772,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7609,7 +7811,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7646,7 +7850,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7683,7 +7889,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7720,7 +7928,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7757,7 +7967,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7794,7 +8006,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7831,7 +8045,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7868,7 +8084,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7905,7 +8123,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7942,7 +8162,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7979,7 +8201,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8016,7 +8240,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8053,7 +8279,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8090,7 +8318,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8127,7 +8357,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8164,7 +8396,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8201,7 +8435,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8238,7 +8474,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8275,7 +8513,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8312,7 +8552,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8349,7 +8591,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8386,7 +8630,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8423,7 +8669,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8460,7 +8708,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8497,7 +8747,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8534,7 +8786,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,7 +8825,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8608,7 +8864,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8645,7 +8903,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8682,7 +8942,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8719,7 +8981,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8756,7 +9020,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8793,7 +9059,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8830,7 +9098,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8867,7 +9137,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8904,7 +9176,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8941,7 +9215,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8975,10 +9251,12 @@
         <v>-4703384.22161575</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9012,10 +9290,12 @@
         <v>-4670490.22621575</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9049,10 +9329,12 @@
         <v>-4693656.72261575</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9086,10 +9368,12 @@
         <v>-4774362.598415749</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9123,10 +9407,12 @@
         <v>-4818152.270615749</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9160,10 +9446,12 @@
         <v>-4818152.270615749</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9197,10 +9485,12 @@
         <v>-4822134.090015749</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9234,10 +9524,12 @@
         <v>-4777702.276515749</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9271,10 +9563,12 @@
         <v>-4826545.095715749</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9308,10 +9602,12 @@
         <v>-4812456.328515749</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9345,10 +9641,12 @@
         <v>-4807204.30311575</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9382,10 +9680,12 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9419,10 +9719,12 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9456,10 +9758,12 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9493,10 +9797,12 @@
         <v>-4820163.23411575</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9533,7 +9839,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9570,7 +9878,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9604,10 +9914,12 @@
         <v>-4849578.207115749</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9641,10 +9953,12 @@
         <v>-4865245.594515749</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9681,7 +9995,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9715,10 +10031,12 @@
         <v>-4900438.146115749</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9752,10 +10070,12 @@
         <v>-4921365.726615749</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9789,10 +10109,12 @@
         <v>-4851494.301315749</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9826,10 +10148,12 @@
         <v>-4866617.690815749</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9863,10 +10187,12 @@
         <v>-4960174.037015748</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9900,10 +10226,12 @@
         <v>-4953655.489615749</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9940,7 +10268,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9977,7 +10307,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10014,7 +10346,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10048,10 +10382,12 @@
         <v>-4893319.363015749</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10085,10 +10421,12 @@
         <v>-4893319.363015749</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10122,10 +10460,12 @@
         <v>-4891434.206015749</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10162,7 +10502,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10199,7 +10541,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10236,7 +10580,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10273,7 +10619,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10307,10 +10655,12 @@
         <v>-4804513.450015748</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10344,10 +10694,12 @@
         <v>-4804513.450015748</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10381,10 +10733,12 @@
         <v>-4804503.450015748</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10418,10 +10772,12 @@
         <v>-4832435.518415748</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10455,10 +10811,12 @@
         <v>-4878303.522815748</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10492,10 +10850,12 @@
         <v>-4835127.192915748</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10529,10 +10889,12 @@
         <v>-4785089.797915748</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10566,10 +10928,12 @@
         <v>-4802460.004615748</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10603,10 +10967,12 @@
         <v>-4841098.892115748</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10643,7 +11009,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10680,7 +11048,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10717,7 +11087,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10754,7 +11126,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10791,7 +11165,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10825,10 +11201,12 @@
         <v>-4897445.555615749</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10865,7 +11243,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10902,7 +11282,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10939,7 +11321,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10976,7 +11360,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11010,10 +11396,12 @@
         <v>-4797017.05591575</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11050,7 +11438,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11087,7 +11477,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11121,10 +11513,12 @@
         <v>-4795176.390515749</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11158,10 +11552,12 @@
         <v>-4795176.390515749</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11195,10 +11591,12 @@
         <v>-4797320.917315749</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11232,10 +11630,12 @@
         <v>-4778895.35141575</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11269,10 +11669,12 @@
         <v>-4778895.35141575</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11306,10 +11708,12 @@
         <v>-4777905.33441575</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11343,10 +11747,12 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11380,10 +11786,12 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11417,10 +11825,12 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11454,10 +11864,12 @@
         <v>-4740706.59021879</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11494,7 +11906,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11531,7 +11945,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11568,7 +11984,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11605,7 +12023,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11642,7 +12062,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11679,7 +12101,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11716,7 +12140,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11753,7 +12179,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11790,7 +12218,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11827,7 +12257,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11864,7 +12296,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11901,7 +12335,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11938,7 +12374,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11975,7 +12413,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12012,7 +12452,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12046,10 +12488,12 @@
         <v>-5042032.657118792</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12083,10 +12527,12 @@
         <v>-5031005.469118792</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12120,10 +12566,12 @@
         <v>-5127802.515418791</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12157,10 +12605,12 @@
         <v>-5181236.479018792</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12194,10 +12644,12 @@
         <v>-5181191.102718792</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12231,10 +12683,12 @@
         <v>-5170184.119118792</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12268,10 +12722,12 @@
         <v>-5170706.818218792</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12305,10 +12761,12 @@
         <v>-5170706.818218792</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12342,10 +12800,12 @@
         <v>-5165505.311218792</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12379,10 +12839,12 @@
         <v>-5164930.688418792</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12416,10 +12878,12 @@
         <v>-5164930.688418792</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12453,10 +12917,12 @@
         <v>-5164930.688418792</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12490,10 +12956,12 @@
         <v>-5164930.688418792</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12527,10 +12995,12 @@
         <v>-5164930.688418792</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12567,7 +13037,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12604,7 +13076,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12641,7 +13115,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12678,7 +13154,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12715,7 +13193,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12752,7 +13232,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12789,7 +13271,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12823,10 +13307,12 @@
         <v>-5011692.979418792</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12860,10 +13346,12 @@
         <v>-5030724.794018792</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12900,7 +13388,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12934,10 +13424,12 @@
         <v>-4949414.248018792</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12974,7 +13466,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13011,7 +13505,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13048,7 +13544,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13085,7 +13583,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13122,7 +13622,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13159,7 +13661,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13196,7 +13700,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13233,7 +13739,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13270,7 +13778,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13307,7 +13817,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13344,7 +13856,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13381,7 +13895,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13418,7 +13934,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13455,7 +13973,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13489,10 +14009,12 @@
         <v>-5033283.051318793</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13526,10 +14048,12 @@
         <v>-5025269.225318792</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13563,10 +14087,12 @@
         <v>-5025269.225318792</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13600,10 +14126,12 @@
         <v>-5025269.225318792</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13637,10 +14165,12 @@
         <v>-5025269.225318792</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13674,10 +14204,12 @@
         <v>-5025269.225318792</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13711,10 +14243,12 @@
         <v>-5025269.225318792</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13751,7 +14285,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13788,7 +14324,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13825,7 +14363,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13862,7 +14402,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13899,7 +14441,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13936,7 +14480,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13973,7 +14519,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14010,7 +14558,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14047,7 +14597,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14084,7 +14636,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14121,7 +14675,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14158,7 +14714,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14195,7 +14753,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14232,7 +14792,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14269,7 +14831,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14306,7 +14870,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14343,7 +14909,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14380,7 +14948,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14417,7 +14987,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14454,7 +15026,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14491,7 +15065,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14528,7 +15104,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14565,7 +15143,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14602,7 +15182,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14639,7 +15221,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14676,7 +15260,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14713,7 +15299,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14750,7 +15338,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14787,7 +15377,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14824,7 +15416,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14861,7 +15455,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14898,7 +15494,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14935,7 +15533,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14972,7 +15572,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15009,7 +15611,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15046,7 +15650,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15083,7 +15689,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15120,7 +15728,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15157,7 +15767,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15194,7 +15806,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15231,7 +15845,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15268,7 +15884,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15305,7 +15923,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15342,7 +15962,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15379,7 +16001,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15416,7 +16040,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15453,7 +16079,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15490,7 +16118,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15527,7 +16157,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15564,7 +16196,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15601,7 +16235,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15638,7 +16274,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15675,7 +16313,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15712,7 +16352,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15749,7 +16391,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15786,7 +16430,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15823,7 +16469,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15860,7 +16508,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15897,7 +16547,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15934,7 +16586,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15971,7 +16625,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16008,7 +16664,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16045,7 +16703,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16082,7 +16742,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16119,7 +16781,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16156,7 +16820,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16193,7 +16859,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16230,7 +16898,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16267,7 +16937,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16304,7 +16976,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16341,7 +17015,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16378,7 +17054,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16415,7 +17093,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16452,7 +17132,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16489,7 +17171,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16526,7 +17210,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16563,7 +17249,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16600,7 +17288,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16637,7 +17327,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16674,7 +17366,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16711,7 +17405,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16748,7 +17444,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16785,7 +17483,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16822,7 +17522,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16859,7 +17561,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16896,7 +17600,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16933,7 +17639,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16970,7 +17678,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17007,7 +17717,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17044,7 +17756,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17081,7 +17795,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17118,7 +17834,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17155,7 +17873,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17192,7 +17912,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17229,7 +17951,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17266,7 +17990,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17303,7 +18029,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17340,7 +18068,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17377,7 +18107,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17414,7 +18146,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17451,7 +18185,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17488,7 +18224,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17525,7 +18263,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17562,7 +18302,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17599,7 +18341,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17636,7 +18380,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17673,7 +18419,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17710,7 +18458,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17747,7 +18497,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17784,7 +18536,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17821,7 +18575,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17858,7 +18614,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17895,7 +18653,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17932,7 +18692,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17969,7 +18731,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18006,7 +18770,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18043,7 +18809,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18080,7 +18848,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18117,7 +18887,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18154,7 +18926,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18191,7 +18965,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18228,7 +19004,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18265,7 +19043,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18302,7 +19082,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18339,7 +19121,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18376,7 +19160,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18413,7 +19199,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18450,7 +19238,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18487,7 +19277,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18524,7 +19316,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18561,7 +19355,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18598,7 +19394,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18635,7 +19433,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18672,7 +19472,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18709,7 +19511,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18746,7 +19550,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18783,7 +19589,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18820,7 +19628,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18857,7 +19667,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18894,7 +19706,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18931,7 +19745,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18968,7 +19784,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19005,7 +19823,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19042,7 +19862,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19079,7 +19901,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19116,7 +19940,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19153,7 +19979,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19190,7 +20018,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19227,7 +20057,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19264,7 +20096,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19301,7 +20135,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19335,16 +20171,20 @@
         <v>-878100.5863187882</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L522" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L522" t="n">
+        <v>1</v>
+      </c>
       <c r="M522" t="inlineStr"/>
     </row>
     <row r="523">
@@ -19370,11 +20210,17 @@
         <v>-928254.4999187882</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19403,11 +20249,17 @@
         <v>-921839.9067187882</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19436,11 +20288,17 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19469,11 +20327,17 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19502,11 +20366,17 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19535,11 +20405,17 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19571,8 +20447,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19604,8 +20486,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19634,11 +20522,17 @@
         <v>-664965.1130187883</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19670,8 +20564,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19700,11 +20600,17 @@
         <v>-680550.7756187883</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19733,11 +20639,17 @@
         <v>-680550.7756187883</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19766,11 +20678,17 @@
         <v>-680550.7756187883</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19799,11 +20717,17 @@
         <v>-699292.3840187883</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19832,11 +20756,17 @@
         <v>-699292.3840187883</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19865,11 +20795,17 @@
         <v>-803468.7729187884</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19898,11 +20834,17 @@
         <v>-798408.3856187884</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19931,11 +20873,17 @@
         <v>-798408.3856187884</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19964,11 +20912,17 @@
         <v>-765256.3299187884</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19997,11 +20951,17 @@
         <v>-765256.3299187884</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20030,11 +20990,17 @@
         <v>-765256.3299187884</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20063,11 +21029,17 @@
         <v>-705572.1853326684</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20096,11 +21068,17 @@
         <v>-705572.1853326684</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20129,11 +21107,17 @@
         <v>-617218.6147970284</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20162,11 +21146,17 @@
         <v>-617218.6147970284</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20195,11 +21185,17 @@
         <v>-653268.9768752684</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20228,11 +21224,17 @@
         <v>-652266.2759752683</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20264,8 +21266,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20297,8 +21305,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20330,8 +21344,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20363,8 +21383,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20396,8 +21422,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20429,8 +21461,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20459,11 +21497,17 @@
         <v>-243527.7094752684</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20492,11 +21536,17 @@
         <v>-243399.1747708984</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20525,11 +21575,17 @@
         <v>-191847.8321708984</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20558,15 +21614,23 @@
         <v>-80928.37409778844</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L559" t="n">
-        <v>1</v>
-      </c>
-      <c r="M559" t="inlineStr"/>
+        <v>1.072134986225896</v>
+      </c>
+      <c r="M559" t="n">
+        <v>1.016528925619835</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -20591,7 +21655,7 @@
         <v>-80928.37409778844</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20624,7 +21688,7 @@
         <v>-80928.37409778844</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20657,7 +21721,7 @@
         <v>172287.0649839416</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20690,7 +21754,7 @@
         <v>318920.0491022115</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20723,7 +21787,7 @@
         <v>594728.9600022116</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20756,7 +21820,7 @@
         <v>631976.2200022116</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20789,7 +21853,7 @@
         <v>607333.9657288817</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20822,7 +21886,7 @@
         <v>607289.3367288817</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20855,7 +21919,7 @@
         <v>475401.6420288817</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20888,7 +21952,7 @@
         <v>515271.6861288817</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20921,7 +21985,7 @@
         <v>638852.9542288817</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20954,7 +22018,7 @@
         <v>638852.9542288817</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20987,7 +22051,7 @@
         <v>610460.9007288817</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21020,7 +22084,7 @@
         <v>610460.9007288817</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21053,7 +22117,7 @@
         <v>604210.9017288818</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21086,7 +22150,7 @@
         <v>604210.9017288818</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21119,7 +22183,7 @@
         <v>588406.1915288818</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21152,7 +22216,7 @@
         <v>565919.1051288818</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21185,7 +22249,7 @@
         <v>560394.0051288818</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21218,7 +22282,7 @@
         <v>552161.7964288818</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21251,7 +22315,7 @@
         <v>574932.5141288819</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21284,7 +22348,7 @@
         <v>574932.5141288819</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21317,7 +22381,7 @@
         <v>570377.9088288818</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21350,7 +22414,7 @@
         <v>570377.9088288818</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21383,7 +22447,7 @@
         <v>567050.5188288818</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21416,7 +22480,7 @@
         <v>567050.5188288818</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21449,7 +22513,7 @@
         <v>367819.7643288817</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21482,7 +22546,7 @@
         <v>363641.4645288818</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21515,7 +22579,7 @@
         <v>363641.4645288818</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21548,7 +22612,7 @@
         <v>363641.4645288818</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21581,7 +22645,7 @@
         <v>293389.0454288818</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21614,7 +22678,7 @@
         <v>293389.0454288818</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21647,7 +22711,7 @@
         <v>301226.3911288818</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21680,7 +22744,7 @@
         <v>301226.3911288818</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21713,7 +22777,7 @@
         <v>332488.0834288818</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21746,7 +22810,7 @@
         <v>297042.2765288817</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21779,7 +22843,7 @@
         <v>309824.1349584617</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21812,7 +22876,7 @@
         <v>309824.1349584617</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21845,7 +22909,7 @@
         <v>345187.3072584617</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21878,7 +22942,7 @@
         <v>-2101063.760041539</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21911,7 +22975,7 @@
         <v>-2101063.760041539</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21944,7 +23008,7 @@
         <v>-2152122.042941539</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21977,7 +23041,7 @@
         <v>-2152122.042941539</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22010,7 +23074,7 @@
         <v>-2287462.236841538</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22043,7 +23107,7 @@
         <v>137591.1591584617</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22076,7 +23140,7 @@
         <v>137591.1591584617</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22109,7 +23173,7 @@
         <v>116924.4732584617</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22142,7 +23206,7 @@
         <v>113724.4732584617</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22175,7 +23239,7 @@
         <v>133174.1189584617</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22208,7 +23272,7 @@
         <v>133174.1189584617</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22241,7 +23305,7 @@
         <v>130998.0510584617</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22274,7 +23338,7 @@
         <v>108383.4988584617</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22307,7 +23371,7 @@
         <v>108413.4988584617</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22340,7 +23404,7 @@
         <v>-3640777.827041538</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22373,7 +23437,7 @@
         <v>-3598449.714041539</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22406,7 +23470,7 @@
         <v>-3598449.714041539</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22439,7 +23503,7 @@
         <v>-3598449.714041539</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22472,7 +23536,7 @@
         <v>-3597095.714041539</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -25805,7 +26869,7 @@
         <v>4933988.869024201</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25838,7 +26902,7 @@
         <v>4916321.131024201</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25871,7 +26935,7 @@
         <v>4916321.131024201</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25904,7 +26968,7 @@
         <v>4915321.131124201</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25937,7 +27001,7 @@
         <v>4914240.381524201</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25970,7 +27034,7 @@
         <v>4920429.658724202</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26003,7 +27067,7 @@
         <v>4901834.500724202</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26036,7 +27100,7 @@
         <v>4724661.237424202</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26102,7 +27166,7 @@
         <v>4724672.573724202</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26267,7 +27331,7 @@
         <v>5336493.838124202</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26300,7 +27364,7 @@
         <v>5364299.041024202</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26333,7 +27397,7 @@
         <v>5361464.309824201</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26366,7 +27430,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26399,7 +27463,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26432,7 +27496,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26465,7 +27529,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26498,7 +27562,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26531,7 +27595,7 @@
         <v>5343024.567424201</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26564,7 +27628,7 @@
         <v>5343024.567424201</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26597,7 +27661,7 @@
         <v>5343024.567424201</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26630,7 +27694,7 @@
         <v>5267443.792624202</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26663,7 +27727,7 @@
         <v>5276165.192624202</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26696,7 +27760,7 @@
         <v>5276165.192624202</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26729,7 +27793,7 @@
         <v>9476165.192624202</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26762,7 +27826,7 @@
         <v>9476165.192624202</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26795,7 +27859,7 @@
         <v>9476165.192624202</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26828,7 +27892,7 @@
         <v>8426155.192624202</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26861,7 +27925,7 @@
         <v>8426155.192624202</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26894,7 +27958,7 @@
         <v>8422155.192624202</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26927,7 +27991,7 @@
         <v>11784949.9847242</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26960,7 +28024,7 @@
         <v>11784949.9847242</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26993,7 +28057,7 @@
         <v>11784949.9847242</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27026,7 +28090,7 @@
         <v>11735785.1359242</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27059,7 +28123,7 @@
         <v>11750794.7697242</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27092,7 +28156,7 @@
         <v>11731425.1804242</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27125,7 +28189,7 @@
         <v>11731425.1804242</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27158,7 +28222,7 @@
         <v>11702421.5824242</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27191,7 +28255,7 @@
         <v>11675768.7458242</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27224,7 +28288,7 @@
         <v>11676439.5962242</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27257,7 +28321,7 @@
         <v>11676439.5962242</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27290,7 +28354,7 @@
         <v>5586439.596224204</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27323,7 +28387,7 @@
         <v>5586439.596224204</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27356,7 +28420,7 @@
         <v>5586439.596224204</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27389,7 +28453,7 @@
         <v>5372677.114224204</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27422,7 +28486,7 @@
         <v>5372677.114224204</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27488,7 +28552,7 @@
         <v>5372677.114224204</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27521,7 +28585,7 @@
         <v>5342544.180324204</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27554,7 +28618,7 @@
         <v>5342796.756124204</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27587,7 +28651,7 @@
         <v>5342796.756124204</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27620,7 +28684,7 @@
         <v>5342796.756124204</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27653,7 +28717,7 @@
         <v>5342796.756124204</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27686,7 +28750,7 @@
         <v>5342796.756124204</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27719,7 +28783,7 @@
         <v>5273517.010324204</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27752,7 +28816,7 @@
         <v>5246021.691424204</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27785,7 +28849,7 @@
         <v>5250197.764724204</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27851,7 +28915,7 @@
         <v>5246027.838724204</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27884,7 +28948,7 @@
         <v>5250911.038724205</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27917,7 +28981,7 @@
         <v>5250417.083524205</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27950,7 +29014,7 @@
         <v>5250417.083524205</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27983,7 +29047,7 @@
         <v>1809253.618124205</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27994,6 +29058,6 @@
       <c r="M784" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest XLM.xlsx
+++ b/BackTest/2019-10-28 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4114,10 +4114,14 @@
         <v>-5678144.411434431</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J113" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4147,11 +4151,19 @@
         <v>-5677294.667334431</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J114" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4192,19 @@
         <v>-5680568.272334431</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="J115" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4221,7 +4241,11 @@
       <c r="J116" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4260,7 +4284,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -6054,11 +6078,9 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>73.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6095,11 +6117,9 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>73.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6136,11 +6156,9 @@
         <v>-5582120.91741575</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>73.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6177,11 +6195,9 @@
         <v>-5582120.91741575</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6218,11 +6234,9 @@
         <v>-5551414.33421575</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6259,11 +6273,9 @@
         <v>-5551414.33421575</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>73.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6300,11 +6312,9 @@
         <v>-5551404.33421575</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>73.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6341,11 +6351,9 @@
         <v>-5555221.83121575</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6382,11 +6390,9 @@
         <v>-5525133.99361575</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6423,11 +6429,9 @@
         <v>-5531086.41981575</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>73.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6464,11 +6468,9 @@
         <v>-5642370.37461575</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6505,11 +6507,9 @@
         <v>-5636756.37461575</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6546,11 +6546,9 @@
         <v>-5633993.254915751</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>73.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6587,11 +6585,9 @@
         <v>-5633993.254915751</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6628,11 +6624,9 @@
         <v>-5633993.254915751</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6669,11 +6663,9 @@
         <v>-5633993.254915751</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6710,11 +6702,9 @@
         <v>-5633993.254915751</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6751,11 +6741,9 @@
         <v>-5626049.322915751</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>73.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6792,11 +6780,9 @@
         <v>-5626049.322915751</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>73.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -8549,7 +8535,7 @@
         <v>-5368981.24098242</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
@@ -8557,11 +8543,11 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>1</v>
+        <v>1.02668044077135</v>
       </c>
       <c r="M224" t="inlineStr"/>
     </row>
@@ -8588,17 +8574,11 @@
         <v>-5061826.48048242</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8627,17 +8607,11 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8666,17 +8640,11 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8705,17 +8673,11 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8744,17 +8706,11 @@
         <v>-5141860.96478242</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8783,17 +8739,11 @@
         <v>-5141860.96478242</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8822,17 +8772,11 @@
         <v>-4857717.85341349</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8861,17 +8805,11 @@
         <v>-4623812.34921575</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8900,17 +8838,11 @@
         <v>-4597229.17261575</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8939,17 +8871,11 @@
         <v>-4547152.49501575</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8978,17 +8904,11 @@
         <v>-4497759.258415749</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9017,17 +8937,11 @@
         <v>-4497759.258415749</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9056,17 +8970,11 @@
         <v>-4577061.476715749</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9095,17 +9003,11 @@
         <v>-4619231.013815749</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9134,17 +9036,11 @@
         <v>-4618333.87161575</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9173,17 +9069,11 @@
         <v>-4582292.16371575</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9212,17 +9102,11 @@
         <v>-4585206.47291575</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9251,17 +9135,11 @@
         <v>-4703384.22161575</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9290,17 +9168,11 @@
         <v>-4670490.22621575</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9329,17 +9201,11 @@
         <v>-4693656.72261575</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9368,17 +9234,11 @@
         <v>-4774362.598415749</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9407,17 +9267,11 @@
         <v>-4818152.270615749</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9446,17 +9300,11 @@
         <v>-4818152.270615749</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9485,17 +9333,11 @@
         <v>-4822134.090015749</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9524,17 +9366,11 @@
         <v>-4777702.276515749</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9563,17 +9399,11 @@
         <v>-4826545.095715749</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9602,17 +9432,11 @@
         <v>-4812456.328515749</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9641,17 +9465,11 @@
         <v>-4807204.30311575</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9680,17 +9498,11 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9719,17 +9531,11 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9758,17 +9564,11 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9797,17 +9597,11 @@
         <v>-4820163.23411575</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9836,17 +9630,11 @@
         <v>-4820163.23411575</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9875,17 +9663,11 @@
         <v>-4844931.884015749</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9917,14 +9699,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9956,14 +9732,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9995,14 +9765,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10034,14 +9798,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10073,14 +9831,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10112,14 +9864,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10151,14 +9897,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10190,14 +9930,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10229,14 +9963,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10268,14 +9996,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10307,14 +10029,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10346,14 +10062,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10385,14 +10095,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10424,14 +10128,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10463,14 +10161,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10502,14 +10194,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10541,14 +10227,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10580,14 +10260,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10619,14 +10293,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10658,14 +10326,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10697,14 +10359,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10736,14 +10392,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10775,14 +10425,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10814,14 +10458,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10853,14 +10491,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10892,14 +10524,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10931,14 +10557,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10970,14 +10590,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11009,14 +10623,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11048,14 +10656,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11087,14 +10689,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11126,14 +10722,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11165,14 +10755,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11204,14 +10788,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11243,14 +10821,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11282,14 +10854,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11321,14 +10887,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11360,14 +10920,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11399,14 +10953,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11438,14 +10986,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11477,14 +11019,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11516,14 +11052,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11552,17 +11082,11 @@
         <v>-4795176.390515749</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11594,14 +11118,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11633,14 +11151,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11672,14 +11184,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11708,17 +11214,11 @@
         <v>-4777905.33441575</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11747,17 +11247,11 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11786,17 +11280,11 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11825,17 +11313,11 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11864,17 +11346,11 @@
         <v>-4740706.59021879</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11903,17 +11379,11 @@
         <v>-4749361.40301879</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11942,17 +11412,11 @@
         <v>-4859699.74011879</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11981,17 +11445,11 @@
         <v>-4949164.879118791</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12020,17 +11478,11 @@
         <v>-4939980.934918791</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12059,17 +11511,11 @@
         <v>-5022921.934918791</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12098,17 +11544,11 @@
         <v>-5022921.934918791</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12137,17 +11577,11 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12176,17 +11610,11 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12215,17 +11643,11 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12254,17 +11676,11 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12293,17 +11709,11 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12332,17 +11742,11 @@
         <v>-5019131.133318791</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12374,14 +11778,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12413,14 +11811,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12452,14 +11844,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12491,14 +11877,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12530,14 +11910,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12569,14 +11943,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12608,14 +11976,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12647,14 +12009,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12686,14 +12042,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12725,14 +12075,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12764,14 +12108,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12803,14 +12141,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12842,14 +12174,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12881,14 +12207,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12920,14 +12240,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12959,14 +12273,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12998,14 +12306,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13037,14 +12339,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13076,14 +12372,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13115,14 +12405,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13154,14 +12438,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13193,14 +12471,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13232,14 +12504,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13271,14 +12537,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13310,14 +12570,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13349,14 +12603,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13388,14 +12636,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13427,14 +12669,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13466,14 +12702,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13505,14 +12735,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13544,14 +12768,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13583,14 +12801,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13622,14 +12834,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13661,14 +12867,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13700,14 +12900,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13739,14 +12933,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13778,14 +12966,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13817,14 +12999,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13856,14 +13032,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13895,14 +13065,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13934,14 +13098,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13973,14 +13131,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14012,14 +13164,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14051,14 +13197,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14090,14 +13230,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14129,14 +13263,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14168,14 +13296,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14207,14 +13329,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14246,14 +13362,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14282,17 +13392,11 @@
         <v>-5025269.225318792</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14321,17 +13425,11 @@
         <v>-8025369.225318792</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14360,17 +13458,11 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14399,17 +13491,11 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14438,17 +13524,11 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14477,17 +13557,11 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14516,17 +13590,11 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14558,14 +13626,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14597,14 +13659,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14633,17 +13689,11 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14672,17 +13722,11 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14714,14 +13758,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14753,14 +13791,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14792,14 +13824,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14831,14 +13857,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14870,14 +13890,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14909,14 +13923,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14948,14 +13956,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14987,14 +13989,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15026,14 +14022,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15065,14 +14055,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15104,14 +14088,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15143,14 +14121,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15182,14 +14154,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15221,14 +14187,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15260,14 +14220,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15299,14 +14253,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15338,14 +14286,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15377,14 +14319,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15416,14 +14352,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15455,14 +14385,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15494,14 +14418,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15533,14 +14451,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15572,14 +14484,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15611,14 +14517,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15650,14 +14550,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15689,14 +14583,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15728,14 +14616,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15767,14 +14649,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15806,14 +14682,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15845,14 +14715,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15884,14 +14748,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15923,14 +14781,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15962,14 +14814,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16001,14 +14847,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16040,14 +14880,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16079,14 +14913,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16118,14 +14946,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16157,14 +14979,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16196,14 +15012,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16235,14 +15045,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16274,14 +15078,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16313,14 +15111,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16352,14 +15144,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16391,14 +15177,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16430,14 +15210,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16469,14 +15243,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16505,17 +15273,15 @@
         <v>-13517218.21871879</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J428" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>74.5</v>
+      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16544,15 +15310,17 @@
         <v>-13519674.09941879</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>74.7</v>
+      </c>
       <c r="J429" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -16583,11 +15351,13 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J430" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16622,11 +15392,13 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J431" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16661,11 +15433,13 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J432" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16700,11 +15474,13 @@
         <v>-13557932.89701879</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J433" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16739,11 +15515,13 @@
         <v>-13537037.78481879</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="J434" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16778,11 +15556,13 @@
         <v>-13532851.96551879</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J435" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16817,11 +15597,13 @@
         <v>-13527851.96551879</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J436" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16856,11 +15638,13 @@
         <v>-13575346.04231879</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="J437" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16895,11 +15679,13 @@
         <v>-13566755.02491879</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>74.7</v>
+      </c>
       <c r="J438" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16934,11 +15720,13 @@
         <v>-13578442.98131879</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>75</v>
+      </c>
       <c r="J439" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16973,11 +15761,13 @@
         <v>-13592763.95881879</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="J440" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -17012,11 +15802,13 @@
         <v>-13592763.95881879</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>74.8</v>
+      </c>
       <c r="J441" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -17051,11 +15843,13 @@
         <v>-10132107.49411879</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>74.8</v>
+      </c>
       <c r="J442" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -17094,7 +15888,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -17133,7 +15927,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -17172,7 +15966,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -17211,7 +16005,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -17250,7 +16044,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -17289,7 +16083,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -17328,7 +16122,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -17367,7 +16161,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -17406,7 +16200,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -17445,7 +16239,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17484,7 +16278,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17523,7 +16317,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17562,7 +16356,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17601,7 +16395,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17640,7 +16434,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17679,7 +16473,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17718,7 +16512,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17757,7 +16551,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17796,7 +16590,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17835,7 +16629,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17874,7 +16668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17913,7 +16707,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17952,7 +16746,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17991,7 +16785,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -18030,7 +16824,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -18069,7 +16863,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -18108,7 +16902,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -18147,7 +16941,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -18186,7 +16980,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -18225,7 +17019,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -18264,7 +17058,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -18303,7 +17097,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -18342,7 +17136,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -18381,7 +17175,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -18420,7 +17214,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -18459,7 +17253,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -18498,7 +17292,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -18537,7 +17331,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -18576,7 +17370,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -18615,7 +17409,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -18654,7 +17448,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -18693,7 +17487,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -18732,7 +17526,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18771,7 +17565,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18810,7 +17604,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18849,7 +17643,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18888,7 +17682,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18927,7 +17721,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18966,7 +17760,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -19005,7 +17799,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -19044,7 +17838,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -19083,7 +17877,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -19122,7 +17916,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -19161,7 +17955,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -19200,7 +17994,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -19239,7 +18033,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -19278,7 +18072,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -19317,7 +18111,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -19356,7 +18150,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -19395,7 +18189,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -19430,19 +18224,19 @@
         <v>-1182641.519318788</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>72.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L503" t="n">
-        <v>1</v>
+        <v>1.008422818791946</v>
       </c>
       <c r="M503" t="inlineStr"/>
     </row>
@@ -19469,17 +18263,11 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19508,17 +18296,11 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19547,17 +18329,11 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19586,17 +18362,11 @@
         <v>-1214330.526318788</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19625,17 +18395,11 @@
         <v>-1211798.493918788</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19664,17 +18428,11 @@
         <v>-1185763.786118788</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19703,17 +18461,11 @@
         <v>-1185763.786118788</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19742,17 +18494,11 @@
         <v>-1108667.724418788</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19781,17 +18527,11 @@
         <v>-1108667.724418788</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19820,17 +18560,11 @@
         <v>-967979.4394187882</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19859,17 +18593,11 @@
         <v>-967979.4394187882</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19898,17 +18626,11 @@
         <v>-900647.8856187882</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19937,17 +18659,11 @@
         <v>-900647.8856187882</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19976,17 +18692,11 @@
         <v>-873329.1079187882</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20015,17 +18725,11 @@
         <v>-873329.1079187882</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20054,17 +18758,11 @@
         <v>-850442.4515187882</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20093,17 +18791,11 @@
         <v>-850442.4515187882</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20132,17 +18824,11 @@
         <v>-842658.1202187883</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20171,17 +18857,11 @@
         <v>-878100.5863187882</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20210,17 +18890,11 @@
         <v>-928254.4999187882</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20249,17 +18923,11 @@
         <v>-921839.9067187882</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20288,17 +18956,11 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20327,17 +18989,11 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20366,17 +19022,11 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20405,17 +19055,11 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20444,17 +19088,11 @@
         <v>-751048.2276187883</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20483,17 +19121,11 @@
         <v>-751048.2276187883</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20522,17 +19154,11 @@
         <v>-664965.1130187883</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20561,17 +19187,11 @@
         <v>-680550.7756187883</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20603,14 +19223,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20639,17 +19253,11 @@
         <v>-680550.7756187883</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20681,14 +19289,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20717,17 +19319,11 @@
         <v>-699292.3840187883</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20756,17 +19352,11 @@
         <v>-699292.3840187883</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20798,14 +19388,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20837,14 +19421,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20876,14 +19454,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20915,14 +19487,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20954,14 +19520,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20993,14 +19553,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21032,14 +19586,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21071,14 +19619,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21110,14 +19652,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21149,14 +19685,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21188,14 +19718,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21227,14 +19751,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21266,14 +19784,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21305,14 +19817,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21344,14 +19850,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21383,14 +19883,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21422,14 +19916,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21461,14 +19949,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21500,14 +19982,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21539,14 +20015,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21578,14 +20048,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21614,23 +20078,15 @@
         <v>-80928.37409778844</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
-        <v>1.072134986225896</v>
-      </c>
-      <c r="M559" t="n">
-        <v>1.016528925619835</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -21655,7 +20111,7 @@
         <v>-80928.37409778844</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21688,7 +20144,7 @@
         <v>-80928.37409778844</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21721,7 +20177,7 @@
         <v>172287.0649839416</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21754,7 +20210,7 @@
         <v>318920.0491022115</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21787,7 +20243,7 @@
         <v>594728.9600022116</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21820,7 +20276,7 @@
         <v>631976.2200022116</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21853,7 +20309,7 @@
         <v>607333.9657288817</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21886,7 +20342,7 @@
         <v>607289.3367288817</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21919,7 +20375,7 @@
         <v>475401.6420288817</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21952,7 +20408,7 @@
         <v>515271.6861288817</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21985,7 +20441,7 @@
         <v>638852.9542288817</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22018,7 +20474,7 @@
         <v>638852.9542288817</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22051,7 +20507,7 @@
         <v>610460.9007288817</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22084,7 +20540,7 @@
         <v>610460.9007288817</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22117,7 +20573,7 @@
         <v>604210.9017288818</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22150,7 +20606,7 @@
         <v>604210.9017288818</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22183,7 +20639,7 @@
         <v>588406.1915288818</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22216,7 +20672,7 @@
         <v>565919.1051288818</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22249,7 +20705,7 @@
         <v>560394.0051288818</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22282,7 +20738,7 @@
         <v>552161.7964288818</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22315,7 +20771,7 @@
         <v>574932.5141288819</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22348,7 +20804,7 @@
         <v>574932.5141288819</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22381,7 +20837,7 @@
         <v>570377.9088288818</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22414,7 +20870,7 @@
         <v>570377.9088288818</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22447,7 +20903,7 @@
         <v>567050.5188288818</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22480,7 +20936,7 @@
         <v>567050.5188288818</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22513,7 +20969,7 @@
         <v>367819.7643288817</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22546,7 +21002,7 @@
         <v>363641.4645288818</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22579,7 +21035,7 @@
         <v>363641.4645288818</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22612,7 +21068,7 @@
         <v>363641.4645288818</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22645,7 +21101,7 @@
         <v>293389.0454288818</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22678,7 +21134,7 @@
         <v>293389.0454288818</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22711,7 +21167,7 @@
         <v>301226.3911288818</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22744,7 +21200,7 @@
         <v>301226.3911288818</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22777,7 +21233,7 @@
         <v>332488.0834288818</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22810,7 +21266,7 @@
         <v>297042.2765288817</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22843,7 +21299,7 @@
         <v>309824.1349584617</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22876,7 +21332,7 @@
         <v>309824.1349584617</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22909,7 +21365,7 @@
         <v>345187.3072584617</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22942,7 +21398,7 @@
         <v>-2101063.760041539</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22975,7 +21431,7 @@
         <v>-2101063.760041539</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23008,7 +21464,7 @@
         <v>-2152122.042941539</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23041,7 +21497,7 @@
         <v>-2152122.042941539</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23074,7 +21530,7 @@
         <v>-2287462.236841538</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23107,7 +21563,7 @@
         <v>137591.1591584617</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23140,7 +21596,7 @@
         <v>137591.1591584617</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23173,7 +21629,7 @@
         <v>116924.4732584617</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23206,7 +21662,7 @@
         <v>113724.4732584617</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23239,7 +21695,7 @@
         <v>133174.1189584617</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23272,7 +21728,7 @@
         <v>133174.1189584617</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23305,7 +21761,7 @@
         <v>130998.0510584617</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -24493,7 +22949,7 @@
         <v>-930583.0663415386</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -27166,7 +25622,7 @@
         <v>4724672.573724202</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27397,7 +25853,7 @@
         <v>5361464.309824201</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27430,7 +25886,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27463,7 +25919,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27496,7 +25952,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27529,7 +25985,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27562,7 +26018,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27595,7 +26051,7 @@
         <v>5343024.567424201</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27628,7 +26084,7 @@
         <v>5343024.567424201</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27661,7 +26117,7 @@
         <v>5343024.567424201</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27694,7 +26150,7 @@
         <v>5267443.792624202</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27727,7 +26183,7 @@
         <v>5276165.192624202</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27760,7 +26216,7 @@
         <v>5276165.192624202</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27793,7 +26249,7 @@
         <v>9476165.192624202</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27826,7 +26282,7 @@
         <v>9476165.192624202</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27859,7 +26315,7 @@
         <v>9476165.192624202</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27892,7 +26348,7 @@
         <v>8426155.192624202</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27925,7 +26381,7 @@
         <v>8426155.192624202</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27958,7 +26414,7 @@
         <v>8422155.192624202</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27991,7 +26447,7 @@
         <v>11784949.9847242</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -28024,7 +26480,7 @@
         <v>11784949.9847242</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28057,7 +26513,7 @@
         <v>11784949.9847242</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28090,7 +26546,7 @@
         <v>11735785.1359242</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28123,7 +26579,7 @@
         <v>11750794.7697242</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28156,7 +26612,7 @@
         <v>11731425.1804242</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28189,7 +26645,7 @@
         <v>11731425.1804242</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28222,7 +26678,7 @@
         <v>11702421.5824242</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28255,7 +26711,7 @@
         <v>11675768.7458242</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28288,7 +26744,7 @@
         <v>11676439.5962242</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28321,7 +26777,7 @@
         <v>11676439.5962242</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28354,7 +26810,7 @@
         <v>5586439.596224204</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28387,7 +26843,7 @@
         <v>5586439.596224204</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28420,7 +26876,7 @@
         <v>5586439.596224204</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28453,7 +26909,7 @@
         <v>5372677.114224204</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28486,7 +26942,7 @@
         <v>5372677.114224204</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28552,7 +27008,7 @@
         <v>5372677.114224204</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28585,7 +27041,7 @@
         <v>5342544.180324204</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28618,7 +27074,7 @@
         <v>5342796.756124204</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28651,7 +27107,7 @@
         <v>5342796.756124204</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28684,7 +27140,7 @@
         <v>5342796.756124204</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28717,7 +27173,7 @@
         <v>5342796.756124204</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28750,7 +27206,7 @@
         <v>5342796.756124204</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28783,7 +27239,7 @@
         <v>5273517.010324204</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28816,7 +27272,7 @@
         <v>5246021.691424204</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28849,7 +27305,7 @@
         <v>5250197.764724204</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28915,7 +27371,7 @@
         <v>5246027.838724204</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28948,7 +27404,7 @@
         <v>5250911.038724205</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28981,7 +27437,7 @@
         <v>5250417.083524205</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -29014,7 +27470,7 @@
         <v>5250417.083524205</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -29047,7 +27503,7 @@
         <v>1809253.618124205</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -29058,6 +27514,6 @@
       <c r="M784" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest XLM.xlsx
+++ b/BackTest/2019-10-28 BackTest XLM.xlsx
@@ -4114,14 +4114,10 @@
         <v>-5678144.411434431</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J113" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4151,19 +4147,11 @@
         <v>-5677294.667334431</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J114" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4192,19 +4180,11 @@
         <v>-5680568.272334431</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="J115" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4233,19 +4213,11 @@
         <v>-5680568.272334431</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J116" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4274,19 +4246,11 @@
         <v>-5697500.587034431</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J117" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4321,13 +4285,9 @@
         <v>72.5</v>
       </c>
       <c r="J118" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>72.5</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4362,11 +4322,11 @@
         <v>72.59999999999999</v>
       </c>
       <c r="J119" t="n">
-        <v>72.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4397,17 +4357,15 @@
         <v>-5576103.563134431</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>72.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4438,19 +4396,11 @@
         <v>-5576443.413334431</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="J121" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4479,19 +4429,11 @@
         <v>-5584473.246834431</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="J122" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4520,19 +4462,11 @@
         <v>-5602714.577834431</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J123" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4567,13 +4501,9 @@
         <v>72.5</v>
       </c>
       <c r="J124" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>72.5</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4602,17 +4532,15 @@
         <v>-5618653.018034431</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>72.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -4643,17 +4571,15 @@
         <v>-5606153.019034431</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>72.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -4684,19 +4610,11 @@
         <v>-5606153.019034431</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="J127" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4725,19 +4643,11 @@
         <v>-5614463.867834431</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="J128" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4766,19 +4676,11 @@
         <v>-5614463.867834431</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J129" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4815,11 +4717,7 @@
       <c r="J130" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4858,7 +4756,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -4899,7 +4797,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -6078,9 +5976,11 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>73.09999999999999</v>
+      </c>
       <c r="J161" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6117,9 +6017,11 @@
         <v>-5543104.27891575</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>73.09999999999999</v>
+      </c>
       <c r="J162" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6156,9 +6058,11 @@
         <v>-5582120.91741575</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>73.09999999999999</v>
+      </c>
       <c r="J163" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6195,9 +6099,11 @@
         <v>-5582120.91741575</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>73</v>
+      </c>
       <c r="J164" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6234,9 +6140,11 @@
         <v>-5551414.33421575</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>73</v>
+      </c>
       <c r="J165" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6273,9 +6181,11 @@
         <v>-5551414.33421575</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>73.3</v>
+      </c>
       <c r="J166" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6312,9 +6222,11 @@
         <v>-5551404.33421575</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>73.3</v>
+      </c>
       <c r="J167" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6351,9 +6263,11 @@
         <v>-5555221.83121575</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="J168" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -6390,9 +6304,11 @@
         <v>-5525133.99361575</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>73.2</v>
+      </c>
       <c r="J169" t="n">
         <v>72.59999999999999</v>
       </c>
@@ -8535,7 +8451,7 @@
         <v>-5368981.24098242</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
@@ -8543,11 +8459,11 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>1.02668044077135</v>
+        <v>1</v>
       </c>
       <c r="M224" t="inlineStr"/>
     </row>
@@ -8574,11 +8490,17 @@
         <v>-5061826.48048242</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8607,11 +8529,17 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8640,11 +8568,17 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8673,11 +8607,17 @@
         <v>-5217510.81508242</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8706,11 +8646,17 @@
         <v>-5141860.96478242</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8739,11 +8685,17 @@
         <v>-5141860.96478242</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8772,11 +8724,17 @@
         <v>-4857717.85341349</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8805,11 +8763,17 @@
         <v>-4623812.34921575</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8838,11 +8802,17 @@
         <v>-4597229.17261575</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8871,11 +8841,17 @@
         <v>-4547152.49501575</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8904,11 +8880,17 @@
         <v>-4497759.258415749</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8937,11 +8919,17 @@
         <v>-4497759.258415749</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8970,11 +8958,17 @@
         <v>-4577061.476715749</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9003,11 +8997,17 @@
         <v>-4619231.013815749</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9036,11 +9036,17 @@
         <v>-4618333.87161575</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +9075,17 @@
         <v>-4582292.16371575</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9102,11 +9114,17 @@
         <v>-4585206.47291575</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9135,11 +9153,17 @@
         <v>-4703384.22161575</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9168,11 +9192,17 @@
         <v>-4670490.22621575</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9201,11 +9231,17 @@
         <v>-4693656.72261575</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9234,11 +9270,17 @@
         <v>-4774362.598415749</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9267,11 +9309,17 @@
         <v>-4818152.270615749</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9300,11 +9348,17 @@
         <v>-4818152.270615749</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9333,11 +9387,17 @@
         <v>-4822134.090015749</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9366,11 +9426,17 @@
         <v>-4777702.276515749</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9399,11 +9465,17 @@
         <v>-4826545.095715749</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9432,11 +9504,17 @@
         <v>-4812456.328515749</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9465,11 +9543,17 @@
         <v>-4807204.30311575</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9498,11 +9582,17 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9531,11 +9621,17 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9564,11 +9660,17 @@
         <v>-4810182.96531575</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9597,11 +9699,17 @@
         <v>-4820163.23411575</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9630,11 +9738,17 @@
         <v>-4820163.23411575</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9663,11 +9777,17 @@
         <v>-4844931.884015749</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9699,8 +9819,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9732,8 +9858,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9765,8 +9897,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9798,8 +9936,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9831,8 +9975,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9864,8 +10014,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9897,8 +10053,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9930,8 +10092,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9963,8 +10131,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9996,8 +10170,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10029,8 +10209,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10062,8 +10248,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10095,8 +10287,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10128,8 +10326,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10161,8 +10365,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10194,8 +10404,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10227,8 +10443,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10260,8 +10482,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10293,8 +10521,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10326,8 +10560,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10359,8 +10599,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10392,8 +10638,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10425,8 +10677,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10458,8 +10716,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10491,8 +10755,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10524,8 +10794,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10557,8 +10833,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10590,8 +10872,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10623,8 +10911,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10656,8 +10950,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10689,8 +10989,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10722,8 +11028,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10755,8 +11067,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10788,8 +11106,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10821,8 +11145,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10854,8 +11184,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10887,8 +11223,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10920,8 +11262,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10953,8 +11301,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10986,8 +11340,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11019,8 +11379,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11052,8 +11418,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11082,11 +11454,17 @@
         <v>-4795176.390515749</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11118,8 +11496,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11151,8 +11535,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11184,8 +11574,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11214,11 +11610,17 @@
         <v>-4777905.33441575</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11247,11 +11649,17 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11280,11 +11688,17 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11313,11 +11727,17 @@
         <v>-4794441.61001575</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11346,11 +11766,17 @@
         <v>-4740706.59021879</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11379,11 +11805,17 @@
         <v>-4749361.40301879</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11412,11 +11844,17 @@
         <v>-4859699.74011879</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11445,11 +11883,17 @@
         <v>-4949164.879118791</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11478,11 +11922,17 @@
         <v>-4939980.934918791</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11511,11 +11961,17 @@
         <v>-5022921.934918791</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11544,11 +12000,17 @@
         <v>-5022921.934918791</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11577,11 +12039,17 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11610,11 +12078,17 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11643,11 +12117,17 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11676,11 +12156,17 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11709,11 +12195,17 @@
         <v>-5004972.466718791</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11742,11 +12234,17 @@
         <v>-5019131.133318791</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11778,8 +12276,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11811,8 +12315,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11844,8 +12354,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11877,8 +12393,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11910,8 +12432,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11943,8 +12471,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11976,8 +12510,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12009,8 +12549,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12042,8 +12588,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12075,8 +12627,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12108,8 +12666,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12141,8 +12705,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12174,8 +12744,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12207,8 +12783,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12240,8 +12822,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12273,8 +12861,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12306,8 +12900,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12339,8 +12939,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12372,8 +12978,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12405,8 +13017,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12438,8 +13056,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12471,8 +13095,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12504,8 +13134,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12537,8 +13173,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12570,8 +13212,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12603,8 +13251,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12636,8 +13290,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12669,8 +13329,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12702,8 +13368,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12735,8 +13407,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12768,8 +13446,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12801,8 +13485,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12834,8 +13524,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12867,8 +13563,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12900,8 +13602,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12933,8 +13641,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12966,8 +13680,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12999,8 +13719,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13032,8 +13758,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13065,8 +13797,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13098,8 +13836,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13131,8 +13875,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13164,8 +13914,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13197,8 +13953,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13230,8 +13992,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13263,8 +14031,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13296,8 +14070,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13329,8 +14109,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13362,8 +14148,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13392,11 +14184,17 @@
         <v>-5025269.225318792</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13425,11 +14223,17 @@
         <v>-8025369.225318792</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13458,11 +14262,17 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13491,11 +14301,17 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13524,11 +14340,17 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13557,11 +14379,17 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13590,11 +14418,17 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13626,8 +14460,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13659,8 +14499,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13689,11 +14535,17 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13722,11 +14574,17 @@
         <v>-8503175.345818792</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13758,8 +14616,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13791,8 +14655,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13824,8 +14694,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13857,8 +14733,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13890,8 +14772,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13923,8 +14811,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13956,8 +14850,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13989,8 +14889,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14022,8 +14928,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14055,8 +14967,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14088,8 +15006,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14121,8 +15045,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14154,8 +15084,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14187,8 +15123,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14220,8 +15162,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14253,8 +15201,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14286,8 +15240,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14319,8 +15279,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14352,8 +15318,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14385,8 +15357,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14418,8 +15396,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14451,8 +15435,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14484,8 +15474,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14517,8 +15513,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14550,8 +15552,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14583,8 +15591,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14616,8 +15630,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14649,8 +15669,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14682,8 +15708,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14715,8 +15747,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14748,8 +15786,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14781,8 +15825,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14814,8 +15864,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14847,8 +15903,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14880,8 +15942,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14913,8 +15981,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14946,8 +16020,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14979,8 +16059,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15012,8 +16098,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15045,8 +16137,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15078,8 +16176,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15111,8 +16215,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15144,8 +16254,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15177,8 +16293,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15210,8 +16332,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15243,8 +16371,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15273,15 +16407,17 @@
         <v>-13517218.21871879</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K428" t="inlineStr"/>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15310,17 +16446,15 @@
         <v>-13519674.09941879</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -15351,13 +16485,11 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15392,13 +16524,11 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15433,13 +16563,11 @@
         <v>-13522799.34461879</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15474,13 +16602,11 @@
         <v>-13557932.89701879</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15515,13 +16641,11 @@
         <v>-13537037.78481879</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15556,13 +16680,11 @@
         <v>-13532851.96551879</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15597,13 +16719,11 @@
         <v>-13527851.96551879</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15638,13 +16758,11 @@
         <v>-13575346.04231879</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15679,13 +16797,11 @@
         <v>-13566755.02491879</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15720,13 +16836,11 @@
         <v>-13578442.98131879</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15761,13 +16875,11 @@
         <v>-13592763.95881879</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15802,13 +16914,11 @@
         <v>-13592763.95881879</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15843,13 +16953,11 @@
         <v>-10132107.49411879</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15888,7 +16996,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15927,7 +17035,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15966,7 +17074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16005,7 +17113,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16044,7 +17152,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16083,7 +17191,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16122,7 +17230,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16161,7 +17269,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16200,7 +17308,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16239,7 +17347,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16278,7 +17386,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16317,7 +17425,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16356,7 +17464,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16395,7 +17503,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16434,7 +17542,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16473,7 +17581,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16512,7 +17620,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16551,7 +17659,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16590,7 +17698,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16629,7 +17737,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16668,7 +17776,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16707,7 +17815,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16746,7 +17854,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16785,7 +17893,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16824,7 +17932,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16863,7 +17971,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16902,7 +18010,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16941,7 +18049,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16980,7 +18088,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17019,7 +18127,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17058,7 +18166,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17097,7 +18205,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17136,7 +18244,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17175,7 +18283,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17214,7 +18322,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17253,7 +18361,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17292,7 +18400,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17331,7 +18439,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17370,7 +18478,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17409,7 +18517,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17448,7 +18556,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17487,7 +18595,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17526,7 +18634,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17565,7 +18673,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17604,7 +18712,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17643,7 +18751,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17682,7 +18790,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17721,7 +18829,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17760,7 +18868,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17799,7 +18907,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17838,7 +18946,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17877,7 +18985,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17916,7 +19024,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17955,7 +19063,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17994,7 +19102,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18033,7 +19141,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18072,7 +19180,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18111,7 +19219,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18150,7 +19258,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18189,7 +19297,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18224,19 +19332,19 @@
         <v>-1182641.519318788</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L503" t="n">
-        <v>1.008422818791946</v>
+        <v>1</v>
       </c>
       <c r="M503" t="inlineStr"/>
     </row>
@@ -18263,11 +19371,17 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18296,11 +19410,17 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18329,11 +19449,17 @@
         <v>-1175341.519318788</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18362,11 +19488,17 @@
         <v>-1214330.526318788</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18395,11 +19527,17 @@
         <v>-1211798.493918788</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18428,11 +19566,17 @@
         <v>-1185763.786118788</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18461,11 +19605,17 @@
         <v>-1185763.786118788</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18494,11 +19644,17 @@
         <v>-1108667.724418788</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18527,11 +19683,17 @@
         <v>-1108667.724418788</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18560,11 +19722,17 @@
         <v>-967979.4394187882</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18593,11 +19761,17 @@
         <v>-967979.4394187882</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18626,11 +19800,17 @@
         <v>-900647.8856187882</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18659,11 +19839,17 @@
         <v>-900647.8856187882</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18692,11 +19878,17 @@
         <v>-873329.1079187882</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18725,11 +19917,17 @@
         <v>-873329.1079187882</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18758,11 +19956,17 @@
         <v>-850442.4515187882</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18791,11 +19995,17 @@
         <v>-850442.4515187882</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18824,11 +20034,17 @@
         <v>-842658.1202187883</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18857,11 +20073,17 @@
         <v>-878100.5863187882</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18890,11 +20112,17 @@
         <v>-928254.4999187882</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18923,11 +20151,17 @@
         <v>-921839.9067187882</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18956,11 +20190,17 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18989,11 +20229,17 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19022,11 +20268,17 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19055,11 +20307,17 @@
         <v>-832738.8969187882</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19088,11 +20346,17 @@
         <v>-751048.2276187883</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19121,11 +20385,17 @@
         <v>-751048.2276187883</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19154,11 +20424,17 @@
         <v>-664965.1130187883</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19187,11 +20463,17 @@
         <v>-680550.7756187883</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19223,8 +20505,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19253,11 +20541,17 @@
         <v>-680550.7756187883</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19289,8 +20583,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19319,11 +20619,17 @@
         <v>-699292.3840187883</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19352,11 +20658,17 @@
         <v>-699292.3840187883</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19388,8 +20700,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19421,8 +20739,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19454,8 +20778,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19487,8 +20817,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19520,8 +20856,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19553,8 +20895,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19586,8 +20934,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19619,8 +20973,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19652,8 +21012,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19685,8 +21051,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19718,8 +21090,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19751,8 +21129,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19784,8 +21168,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19817,8 +21207,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19850,8 +21246,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19883,8 +21285,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19916,8 +21324,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19949,8 +21363,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19982,8 +21402,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20015,8 +21441,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20048,8 +21480,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20081,8 +21519,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20114,8 +21558,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20144,15 +21594,23 @@
         <v>-80928.37409778844</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L561" t="n">
-        <v>1</v>
-      </c>
-      <c r="M561" t="inlineStr"/>
+        <v>1.072134986225896</v>
+      </c>
+      <c r="M561" t="n">
+        <v>1.017931034482759</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -20177,7 +21635,7 @@
         <v>172287.0649839416</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20210,7 +21668,7 @@
         <v>318920.0491022115</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20243,7 +21701,7 @@
         <v>594728.9600022116</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20276,7 +21734,7 @@
         <v>631976.2200022116</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20309,7 +21767,7 @@
         <v>607333.9657288817</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20342,7 +21800,7 @@
         <v>607289.3367288817</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20375,7 +21833,7 @@
         <v>475401.6420288817</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20408,7 +21866,7 @@
         <v>515271.6861288817</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20441,7 +21899,7 @@
         <v>638852.9542288817</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20474,7 +21932,7 @@
         <v>638852.9542288817</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20507,7 +21965,7 @@
         <v>610460.9007288817</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20540,7 +21998,7 @@
         <v>610460.9007288817</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22949,7 +24407,7 @@
         <v>-930583.0663415386</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25853,7 +27311,7 @@
         <v>5361464.309824201</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25985,7 +27443,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26018,7 +27476,7 @@
         <v>5365819.209824202</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26051,7 +27509,7 @@
         <v>5343024.567424201</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
